--- a/natmiOut/OldD7/LR-pairs_lrc2p/Slit2-App.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Slit2-App.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.116234165429755</v>
+        <v>0.1645843333333333</v>
       </c>
       <c r="H2">
-        <v>0.116234165429755</v>
+        <v>0.493753</v>
       </c>
       <c r="I2">
-        <v>0.03110686697858683</v>
+        <v>0.03485847193389392</v>
       </c>
       <c r="J2">
-        <v>0.03110686697858683</v>
+        <v>0.03485847193389392</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>103.002876831574</v>
+        <v>103.4275383333333</v>
       </c>
       <c r="N2">
-        <v>103.002876831574</v>
+        <v>310.282615</v>
       </c>
       <c r="O2">
-        <v>0.2570403662188817</v>
+        <v>0.2485530285127421</v>
       </c>
       <c r="P2">
-        <v>0.2570403662188817</v>
+        <v>0.2485530285127421</v>
       </c>
       <c r="Q2">
-        <v>11.97245342538185</v>
+        <v>17.02255244489945</v>
       </c>
       <c r="R2">
-        <v>11.97245342538185</v>
+        <v>153.202972004095</v>
       </c>
       <c r="S2">
-        <v>0.007995720480097997</v>
+        <v>0.008664178768495755</v>
       </c>
       <c r="T2">
-        <v>0.007995720480097997</v>
+        <v>0.008664178768495755</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.116234165429755</v>
+        <v>0.1645843333333333</v>
       </c>
       <c r="H3">
-        <v>0.116234165429755</v>
+        <v>0.493753</v>
       </c>
       <c r="I3">
-        <v>0.03110686697858683</v>
+        <v>0.03485847193389392</v>
       </c>
       <c r="J3">
-        <v>0.03110686697858683</v>
+        <v>0.03485847193389392</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>215.340949014042</v>
+        <v>216.130539</v>
       </c>
       <c r="N3">
-        <v>215.340949014042</v>
+        <v>648.391617</v>
       </c>
       <c r="O3">
-        <v>0.53737641218506</v>
+        <v>0.5193964865470273</v>
       </c>
       <c r="P3">
-        <v>0.53737641218506</v>
+        <v>0.5193964865470272</v>
       </c>
       <c r="Q3">
-        <v>25.02997549149859</v>
+        <v>35.571700674289</v>
       </c>
       <c r="R3">
-        <v>25.02997549149859</v>
+        <v>320.145306068601</v>
       </c>
       <c r="S3">
-        <v>0.01671609657127091</v>
+        <v>0.01810536784886266</v>
       </c>
       <c r="T3">
-        <v>0.01671609657127091</v>
+        <v>0.01810536784886265</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.116234165429755</v>
+        <v>0.1645843333333333</v>
       </c>
       <c r="H4">
-        <v>0.116234165429755</v>
+        <v>0.493753</v>
       </c>
       <c r="I4">
-        <v>0.03110686697858683</v>
+        <v>0.03485847193389392</v>
       </c>
       <c r="J4">
-        <v>0.03110686697858683</v>
+        <v>0.03485847193389392</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>59.6543442203264</v>
+        <v>71.607325</v>
       </c>
       <c r="N4">
-        <v>59.6543442203264</v>
+        <v>214.821975</v>
       </c>
       <c r="O4">
-        <v>0.1488654973201646</v>
+        <v>0.1720839321833696</v>
       </c>
       <c r="P4">
-        <v>0.1488654973201646</v>
+        <v>0.1720839321833696</v>
       </c>
       <c r="Q4">
-        <v>6.933872914708967</v>
+        <v>11.78544384690833</v>
       </c>
       <c r="R4">
-        <v>6.933872914708967</v>
+        <v>106.068994622175</v>
       </c>
       <c r="S4">
-        <v>0.004630739222839535</v>
+        <v>0.005998582920288092</v>
       </c>
       <c r="T4">
-        <v>0.004630739222839535</v>
+        <v>0.005998582920288092</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.116234165429755</v>
+        <v>0.1645843333333333</v>
       </c>
       <c r="H5">
-        <v>0.116234165429755</v>
+        <v>0.493753</v>
       </c>
       <c r="I5">
-        <v>0.03110686697858683</v>
+        <v>0.03485847193389392</v>
       </c>
       <c r="J5">
-        <v>0.03110686697858683</v>
+        <v>0.03485847193389392</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>22.7282930447673</v>
+        <v>24.953198</v>
       </c>
       <c r="N5">
-        <v>22.7282930447673</v>
+        <v>74.859594</v>
       </c>
       <c r="O5">
-        <v>0.05671772427589365</v>
+        <v>0.05996655275686102</v>
       </c>
       <c r="P5">
-        <v>0.05671772427589365</v>
+        <v>0.05996655275686102</v>
       </c>
       <c r="Q5">
-        <v>2.641804173701432</v>
+        <v>4.106905457364666</v>
       </c>
       <c r="R5">
-        <v>2.641804173701432</v>
+        <v>36.962149116282</v>
       </c>
       <c r="S5">
-        <v>0.001764310704378389</v>
+        <v>0.002090342396247409</v>
       </c>
       <c r="T5">
-        <v>0.001764310704378389</v>
+        <v>0.002090342396247408</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.21809165958846</v>
+        <v>3.368329</v>
       </c>
       <c r="H6">
-        <v>3.21809165958846</v>
+        <v>10.104987</v>
       </c>
       <c r="I6">
-        <v>0.8612334317504547</v>
+        <v>0.7134020567608963</v>
       </c>
       <c r="J6">
-        <v>0.8612334317504547</v>
+        <v>0.7134020567608964</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>103.002876831574</v>
+        <v>103.4275383333333</v>
       </c>
       <c r="N6">
-        <v>103.002876831574</v>
+        <v>310.282615</v>
       </c>
       <c r="O6">
-        <v>0.2570403662188817</v>
+        <v>0.2485530285127421</v>
       </c>
       <c r="P6">
-        <v>0.2570403662188817</v>
+        <v>0.2485530285127421</v>
       </c>
       <c r="Q6">
-        <v>331.4726988453057</v>
+        <v>348.3779767667783</v>
       </c>
       <c r="R6">
-        <v>331.4726988453057</v>
+        <v>3135.401790901005</v>
       </c>
       <c r="S6">
-        <v>0.2213717566970811</v>
+        <v>0.1773182417551399</v>
       </c>
       <c r="T6">
-        <v>0.2213717566970811</v>
+        <v>0.1773182417551399</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.21809165958846</v>
+        <v>3.368329</v>
       </c>
       <c r="H7">
-        <v>3.21809165958846</v>
+        <v>10.104987</v>
       </c>
       <c r="I7">
-        <v>0.8612334317504547</v>
+        <v>0.7134020567608963</v>
       </c>
       <c r="J7">
-        <v>0.8612334317504547</v>
+        <v>0.7134020567608964</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>215.340949014042</v>
+        <v>216.130539</v>
       </c>
       <c r="N7">
-        <v>215.340949014042</v>
+        <v>648.391617</v>
       </c>
       <c r="O7">
-        <v>0.53737641218506</v>
+        <v>0.5193964865470273</v>
       </c>
       <c r="P7">
-        <v>0.53737641218506</v>
+        <v>0.5193964865470272</v>
       </c>
       <c r="Q7">
-        <v>692.9869119899524</v>
+        <v>727.9987622993309</v>
       </c>
       <c r="R7">
-        <v>692.9869119899524</v>
+        <v>6551.988860693978</v>
       </c>
       <c r="S7">
-        <v>0.4628065316078862</v>
+        <v>0.3705385217770325</v>
       </c>
       <c r="T7">
-        <v>0.4628065316078862</v>
+        <v>0.3705385217770324</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.21809165958846</v>
+        <v>3.368329</v>
       </c>
       <c r="H8">
-        <v>3.21809165958846</v>
+        <v>10.104987</v>
       </c>
       <c r="I8">
-        <v>0.8612334317504547</v>
+        <v>0.7134020567608963</v>
       </c>
       <c r="J8">
-        <v>0.8612334317504547</v>
+        <v>0.7134020567608964</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>59.6543442203264</v>
+        <v>71.607325</v>
       </c>
       <c r="N8">
-        <v>59.6543442203264</v>
+        <v>214.821975</v>
       </c>
       <c r="O8">
-        <v>0.1488654973201646</v>
+        <v>0.1720839321833696</v>
       </c>
       <c r="P8">
-        <v>0.1488654973201646</v>
+        <v>0.1720839321833696</v>
       </c>
       <c r="Q8">
-        <v>191.9731475936514</v>
+        <v>241.197029409925</v>
       </c>
       <c r="R8">
-        <v>191.9731475936514</v>
+        <v>2170.773264689325</v>
       </c>
       <c r="S8">
-        <v>0.1282079431262835</v>
+        <v>0.1227650311551184</v>
       </c>
       <c r="T8">
-        <v>0.1282079431262835</v>
+        <v>0.1227650311551185</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.21809165958846</v>
+        <v>3.368329</v>
       </c>
       <c r="H9">
-        <v>3.21809165958846</v>
+        <v>10.104987</v>
       </c>
       <c r="I9">
-        <v>0.8612334317504547</v>
+        <v>0.7134020567608963</v>
       </c>
       <c r="J9">
-        <v>0.8612334317504547</v>
+        <v>0.7134020567608964</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>22.7282930447673</v>
+        <v>24.953198</v>
       </c>
       <c r="N9">
-        <v>22.7282930447673</v>
+        <v>74.859594</v>
       </c>
       <c r="O9">
-        <v>0.05671772427589365</v>
+        <v>0.05996655275686102</v>
       </c>
       <c r="P9">
-        <v>0.05671772427589365</v>
+        <v>0.05996655275686102</v>
       </c>
       <c r="Q9">
-        <v>73.14173028404807</v>
+        <v>84.05058046614199</v>
       </c>
       <c r="R9">
-        <v>73.14173028404807</v>
+        <v>756.455224195278</v>
       </c>
       <c r="S9">
-        <v>0.04884720031920397</v>
+        <v>0.04278026207360545</v>
       </c>
       <c r="T9">
-        <v>0.04884720031920397</v>
+        <v>0.04278026207360545</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.402282092126498</v>
+        <v>1.188588333333333</v>
       </c>
       <c r="H10">
-        <v>0.402282092126498</v>
+        <v>3.565765</v>
       </c>
       <c r="I10">
-        <v>0.1076597012709584</v>
+        <v>0.2517394713052097</v>
       </c>
       <c r="J10">
-        <v>0.1076597012709584</v>
+        <v>0.2517394713052098</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>103.002876831574</v>
+        <v>103.4275383333333</v>
       </c>
       <c r="N10">
-        <v>103.002876831574</v>
+        <v>310.282615</v>
       </c>
       <c r="O10">
-        <v>0.2570403662188817</v>
+        <v>0.2485530285127421</v>
       </c>
       <c r="P10">
-        <v>0.2570403662188817</v>
+        <v>0.2485530285127421</v>
       </c>
       <c r="Q10">
-        <v>41.43621278685358</v>
+        <v>122.9327654083861</v>
       </c>
       <c r="R10">
-        <v>41.43621278685358</v>
+        <v>1106.394888675475</v>
       </c>
       <c r="S10">
-        <v>0.02767288904170256</v>
+        <v>0.06257060798910642</v>
       </c>
       <c r="T10">
-        <v>0.02767288904170256</v>
+        <v>0.06257060798910642</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.402282092126498</v>
+        <v>1.188588333333333</v>
       </c>
       <c r="H11">
-        <v>0.402282092126498</v>
+        <v>3.565765</v>
       </c>
       <c r="I11">
-        <v>0.1076597012709584</v>
+        <v>0.2517394713052097</v>
       </c>
       <c r="J11">
-        <v>0.1076597012709584</v>
+        <v>0.2517394713052098</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>215.340949014042</v>
+        <v>216.130539</v>
       </c>
       <c r="N11">
-        <v>215.340949014042</v>
+        <v>648.391617</v>
       </c>
       <c r="O11">
-        <v>0.53737641218506</v>
+        <v>0.5193964865470273</v>
       </c>
       <c r="P11">
-        <v>0.53737641218506</v>
+        <v>0.5193964865470272</v>
       </c>
       <c r="Q11">
-        <v>86.62780748987436</v>
+        <v>256.890237132445</v>
       </c>
       <c r="R11">
-        <v>86.62780748987436</v>
+        <v>2312.012134192005</v>
       </c>
       <c r="S11">
-        <v>0.05785378400590299</v>
+        <v>0.1307525969211321</v>
       </c>
       <c r="T11">
-        <v>0.05785378400590299</v>
+        <v>0.1307525969211321</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>25</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.402282092126498</v>
+        <v>1.188588333333333</v>
       </c>
       <c r="H12">
-        <v>0.402282092126498</v>
+        <v>3.565765</v>
       </c>
       <c r="I12">
-        <v>0.1076597012709584</v>
+        <v>0.2517394713052097</v>
       </c>
       <c r="J12">
-        <v>0.1076597012709584</v>
+        <v>0.2517394713052098</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>59.6543442203264</v>
+        <v>71.607325</v>
       </c>
       <c r="N12">
-        <v>59.6543442203264</v>
+        <v>214.821975</v>
       </c>
       <c r="O12">
-        <v>0.1488654973201646</v>
+        <v>0.1720839321833696</v>
       </c>
       <c r="P12">
-        <v>0.1488654973201646</v>
+        <v>0.1720839321833696</v>
       </c>
       <c r="Q12">
-        <v>23.99787439738717</v>
+        <v>85.11163107620834</v>
       </c>
       <c r="R12">
-        <v>23.99787439738717</v>
+        <v>766.004679685875</v>
       </c>
       <c r="S12">
-        <v>0.01602681497104159</v>
+        <v>0.04332031810796302</v>
       </c>
       <c r="T12">
-        <v>0.01602681497104159</v>
+        <v>0.04332031810796303</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>22</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.402282092126498</v>
+        <v>1.188588333333333</v>
       </c>
       <c r="H13">
-        <v>0.402282092126498</v>
+        <v>3.565765</v>
       </c>
       <c r="I13">
-        <v>0.1076597012709584</v>
+        <v>0.2517394713052097</v>
       </c>
       <c r="J13">
-        <v>0.1076597012709584</v>
+        <v>0.2517394713052098</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>22.7282930447673</v>
+        <v>24.953198</v>
       </c>
       <c r="N13">
-        <v>22.7282930447673</v>
+        <v>74.859594</v>
       </c>
       <c r="O13">
-        <v>0.05671772427589365</v>
+        <v>0.05996655275686102</v>
       </c>
       <c r="P13">
-        <v>0.05671772427589365</v>
+        <v>0.05996655275686102</v>
       </c>
       <c r="Q13">
-        <v>9.143185276513124</v>
+        <v>29.65908002215667</v>
       </c>
       <c r="R13">
-        <v>9.143185276513124</v>
+        <v>266.93172019941</v>
       </c>
       <c r="S13">
-        <v>0.006106213252311298</v>
+        <v>0.01509594828700816</v>
       </c>
       <c r="T13">
-        <v>0.006106213252311298</v>
+        <v>0.01509594828700816</v>
       </c>
     </row>
   </sheetData>
